--- a/app/vistas/Import/subidas/ejemploCur.xlsx
+++ b/app/vistas/Import/subidas/ejemploCur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo\app\vistas\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B6538-B0E7-4166-85AE-153CAC5FA889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427886A8-53A1-4D95-B638-2833CA33D556}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>002250</t>
   </si>
@@ -60,12 +60,6 @@
     <t>xxxxxxxxx</t>
   </si>
   <si>
-    <t>000465</t>
-  </si>
-  <si>
-    <t>000568</t>
-  </si>
-  <si>
     <t>curso 1</t>
   </si>
   <si>
@@ -96,14 +90,32 @@
     <t>curso 10</t>
   </si>
   <si>
-    <t>aaaaaa</t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Créditos</t>
+  </si>
+  <si>
+    <t>Horas Teóricas</t>
+  </si>
+  <si>
+    <t>Horas Prácticas</t>
+  </si>
+  <si>
+    <t>Obligatorio=1 / Electivo=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +137,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,15 +168,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4627F572-0A4F-41ED-8B7B-7E8C3F796FA1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,41 +521,40 @@
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -519,25 +562,22 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>40</v>
       </c>
       <c r="F2">
         <v>40</v>
       </c>
       <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -545,25 +585,22 @@
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="E3">
+        <v>40</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -571,25 +608,22 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+      <c r="E4">
+        <v>40</v>
       </c>
       <c r="F4">
         <v>40</v>
       </c>
       <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -597,25 +631,22 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>40</v>
       </c>
       <c r="F5">
         <v>40</v>
       </c>
       <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -623,25 +654,22 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+      <c r="E6">
+        <v>40</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -649,25 +677,22 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="E7">
+        <v>40</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7">
-        <v>40</v>
-      </c>
-      <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -675,25 +700,22 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+      <c r="E8">
+        <v>40</v>
       </c>
       <c r="F8">
         <v>40</v>
       </c>
       <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -701,25 +723,22 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+      <c r="E9">
+        <v>40</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
       <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -727,25 +746,22 @@
       <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+      <c r="E10">
+        <v>40</v>
       </c>
       <c r="F10">
         <v>40</v>
       </c>
       <c r="G10">
-        <v>40</v>
-      </c>
-      <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -753,20 +769,17 @@
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+      <c r="E11">
+        <v>40</v>
       </c>
       <c r="F11">
         <v>40</v>
       </c>
       <c r="G11">
-        <v>40</v>
-      </c>
-      <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
   </sheetData>
